--- a/data_synthetic/synthetic.xlsx
+++ b/data_synthetic/synthetic.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[605.   0. 640.   0. 605. 480.   0.   0.   1.]</t>
+          <t>[843.   0. 640.   0. 843. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -496,12 +496,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[813.   0. 640.   0. 813. 480.   0.   0.   1.]</t>
+          <t>[994.   0. 640.   0. 994. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[0.03 0.   0.   0.   0.  ]</t>
+          <t>[0.05 0.   0.   0.   0.  ]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -521,12 +521,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[803.   0. 640.   0. 803. 480.   0.   0.   1.]</t>
+          <t>[811.   0. 640.   0. 811. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[0.05 0.01 0.   0.   0.  ]</t>
+          <t>[0.06 0.08 0.   0.   0.  ]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -546,12 +546,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[650.   0. 640.   0. 650. 480.   0.   0.   1.]</t>
+          <t>[904.   0. 640.   0. 904. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[0.07 0.04 0.05 0.   0.  ]</t>
+          <t>[0.07 0.02 0.02 0.   0.  ]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -571,12 +571,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[783.   0. 640.   0. 783. 480.   0.   0.   1.]</t>
+          <t>[801.   0. 640.   0. 801. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[0.06 0.02 0.05 0.07 0.02]</t>
+          <t>[0.07 0.07 0.05 0.06 0.07]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[654.   0. 640.   0. 556. 480.   0.   0.   1.]</t>
+          <t>[826.   0. 640.   0. 894. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -621,12 +621,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[559.   0. 640.   0. 997. 480.   0.   0.   1.]</t>
+          <t>[936.   0. 640.   0. 855. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[0.02 0.   0.   0.   0.  ]</t>
+          <t>[0.07 0.   0.   0.   0.  ]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -646,12 +646,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[766.   0. 640.   0. 809. 480.   0.   0.   1.]</t>
+          <t>[858.   0. 640.   0. 851. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[0.06 0.07 0.   0.   0.  ]</t>
+          <t>[0.09 0.   0.   0.   0.  ]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -671,12 +671,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[993.   0. 640.   0. 929. 480.   0.   0.   1.]</t>
+          <t>[835.   0. 640.   0. 958. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[0.07 0.01 0.07 0.   0.  ]</t>
+          <t>[0.02 0.02 0.09 0.   0.  ]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[529.   0. 640.   0. 920. 480.   0.   0.   1.]</t>
+          <t>[999.   0. 640.   0. 899. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[0.01 0.01 0.04 0.02 0.04]</t>
+          <t>[0.02 0.01 0.05 0.08 0.06]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[902.   0. 838.   0. 902. 957.   0.   0.   1.]</t>
+          <t>[940.   0. 600.   0. 940. 700.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -746,12 +746,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[725.   0. 784.   0. 725. 807.   0.   0.   1.]</t>
+          <t>[994.   0. 600.   0. 994. 700.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[0.05 0.   0.   0.   0.  ]</t>
+          <t>[0.03 0.   0.   0.   0.  ]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[748.   0. 882.   0. 748. 730.   0.   0.   1.]</t>
+          <t>[985.   0. 600.   0. 985. 700.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[0.09 0.05 0.   0.   0.  ]</t>
+          <t>[0.07 0.07 0.   0.   0.  ]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[948.   0. 753.   0. 948.  90.   0.   0.   1.]</t>
+          <t>[977.   0. 600.   0. 977. 700.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[0.05 0.08 0.06 0.   0.  ]</t>
+          <t>[0.06 0.07 0.01 0.   0.  ]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[551.   0. 637.   0. 551. 636.   0.   0.   1.]</t>
+          <t>[900.   0. 600.   0. 900. 700.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[0.07 0.08 0.01 0.08 0.05]</t>
+          <t>[0.08 0.05 0.05 0.09 0.04]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[918.   0. 985.   0. 981. 317.   0.   0.   1.]</t>
+          <t>[963.   0. 600.   0. 959. 700.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -871,12 +871,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[952.   0. 209.   0. 552. 604.   0.   0.   1.]</t>
+          <t>[898.   0. 600.   0. 931. 700.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[0.05 0.   0.   0.   0.  ]</t>
+          <t>[0.06 0.   0.   0.   0.  ]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -896,12 +896,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[676.   0. 479.   0. 675. 659.   0.   0.   1.]</t>
+          <t>[823.   0. 600.   0. 933. 700.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[0.06 0.01 0.   0.   0.  ]</t>
+          <t>[0.06 0.   0.   0.   0.  ]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[676.   0. 759.   0. 973. 324.   0.   0.   1.]</t>
+          <t>[918.   0. 600.   0. 903. 700.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[0.02 0.07 0.02 0.   0.  ]</t>
+          <t>[0.01 0.06 0.04 0.   0.  ]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -946,13 +946,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[5.990e+02 0.000e+00 1.032e+03 0.000e+00 6.420e+02 4.950e+02 0.000e+00
- 0.000e+00 1.000e+00]</t>
+          <t>[936.   0. 600.   0. 902. 700.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[0.07 0.06 0.07 0.02 0.06]</t>
+          <t>[0.07 0.03 0.02 0.04 0.09]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -972,7 +971,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[858.   0. 640.   0. 540. 480.   0.   0.   1.]</t>
+          <t>[921.   0. 640.   0. 923. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -997,12 +996,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[865.   0. 640.   0. 607. 480.   0.   0.   1.]</t>
+          <t>[984.   0. 640.   0. 898. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[0.06 0.   0.   0.  ]</t>
+          <t>[0.03 0.   0.   0.  ]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1022,12 +1021,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[743.   0. 640.   0. 610. 480.   0.   0.   1.]</t>
+          <t>[927.   0. 640.   0. 819. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[0.08 0.01 0.   0.  ]</t>
+          <t>[0.04 0.09 0.   0.  ]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1047,12 +1046,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[756.   0. 640.   0. 570. 480.   0.   0.   1.]</t>
+          <t>[923.   0. 640.   0. 901. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[0.07 0.08 0.05 0.  ]</t>
+          <t>[0.08 0.08 0.06 0.  ]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1072,12 +1071,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[915.   0. 640.   0. 625. 480.   0.   0.   1.]</t>
+          <t>[872.   0. 640.   0. 952. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[0.02 0.02 0.03 0.03]</t>
+          <t>[0.05 0.01 0.07 0.07]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1097,7 +1096,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[6.64e+02 9.00e-02 6.40e+02 0.00e+00 7.58e+02 4.80e+02 0.00e+00 0.00e+00
+          <t>[8.16e+02 1.00e-02 6.40e+02 0.00e+00 8.39e+02 4.80e+02 0.00e+00 0.00e+00
  1.00e+00]</t>
         </is>
       </c>
@@ -1123,13 +1122,13 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[8.63e+02 2.00e-02 6.40e+02 0.00e+00 8.43e+02 4.80e+02 0.00e+00 0.00e+00
+          <t>[8.63e+02 2.00e-02 6.40e+02 0.00e+00 8.54e+02 4.80e+02 0.00e+00 0.00e+00
  1.00e+00]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[0.04 0.   0.   0.  ]</t>
+          <t>[0.06 0.   0.   0.  ]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1149,13 +1148,13 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[6.61e+02 1.00e-02 6.40e+02 0.00e+00 7.87e+02 4.80e+02 0.00e+00 0.00e+00
+          <t>[9.42e+02 4.00e-02 6.40e+02 0.00e+00 9.14e+02 4.80e+02 0.00e+00 0.00e+00
  1.00e+00]</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[0.   0.07 0.   0.  ]</t>
+          <t>[0.02 0.03 0.   0.  ]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1175,13 +1174,13 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[8.31e+02 2.00e-02 6.40e+02 0.00e+00 5.10e+02 4.80e+02 0.00e+00 0.00e+00
+          <t>[8.87e+02 3.00e-02 6.40e+02 0.00e+00 9.64e+02 4.80e+02 0.00e+00 0.00e+00
  1.00e+00]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[0.06 0.08 0.04 0.  ]</t>
+          <t>[0.04 0.09 0.01 0.  ]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1201,13 +1200,13 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[8.23e+02 4.00e-02 6.40e+02 0.00e+00 9.25e+02 4.80e+02 0.00e+00 0.00e+00
+          <t>[9.00e+02 3.00e-02 6.40e+02 0.00e+00 8.54e+02 4.80e+02 0.00e+00 0.00e+00
  1.00e+00]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[0.   0.06 0.02 0.05]</t>
+          <t>[0.09 0.02 0.04 0.02]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1227,8 +1226,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[8.730e+02 0.000e+00 1.008e+03 0.000e+00 8.770e+02 7.760e+02 0.000e+00
- 0.000e+00 1.000e+00]</t>
+          <t>[889.   0. 600.   0. 856. 700.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1253,13 +1251,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[9.960e+02 0.000e+00 1.201e+03 0.000e+00 8.970e+02 1.590e+02 0.000e+00
- 0.000e+00 1.000e+00]</t>
+          <t>[833.   0. 600.   0. 934. 700.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[0.08 0.   0.   0.  ]</t>
+          <t>[0.03 0.   0.   0.  ]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1279,13 +1276,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[8.790e+02 0.000e+00 1.194e+03 0.000e+00 8.040e+02 5.290e+02 0.000e+00
- 0.000e+00 1.000e+00]</t>
+          <t>[989.   0. 600.   0. 893. 700.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[0.   0.09 0.   0.  ]</t>
+          <t>[0.07 0.06 0.   0.  ]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1305,12 +1301,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[698.   0. 547.   0. 529. 605.   0.   0.   1.]</t>
+          <t>[873.   0. 600.   0. 804. 700.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>[0.08 0.06 0.04 0.  ]</t>
+          <t>[0.06 0.07 0.03 0.  ]</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1330,12 +1326,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[869.   0. 303.   0. 510. 871.   0.   0.   1.]</t>
+          <t>[810.   0. 600.   0. 980. 700.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[0.07 0.01 0.05 0.02]</t>
+          <t>[0.08 0.01 0.04 0.07]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1355,7 +1351,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[6.29e+02 8.00e-02 4.03e+02 0.00e+00 7.83e+02 2.42e+02 0.00e+00 0.00e+00
+          <t>[8.68e+02 7.00e-02 6.00e+02 0.00e+00 9.76e+02 7.00e+02 0.00e+00 0.00e+00
  1.00e+00]</t>
         </is>
       </c>
@@ -1381,13 +1377,13 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[9.300e+02 1.000e-02 1.197e+03 0.000e+00 8.910e+02 4.940e+02 0.000e+00
- 0.000e+00 1.000e+00]</t>
+          <t>[9.40e+02 7.00e-02 6.00e+02 0.00e+00 8.29e+02 7.00e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[0.01 0.   0.   0.  ]</t>
+          <t>[0.05 0.   0.   0.  ]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1407,13 +1403,13 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[5.39e+02 3.00e-02 5.12e+02 0.00e+00 7.66e+02 3.85e+02 0.00e+00 0.00e+00
+          <t>[9.52e+02 3.00e-02 6.00e+02 0.00e+00 9.13e+02 7.00e+02 0.00e+00 0.00e+00
  1.00e+00]</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[0.09 0.02 0.   0.  ]</t>
+          <t>[0.04 0.02 0.   0.  ]</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1433,13 +1429,13 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>[6.71e+02 3.00e-02 1.03e+03 0.00e+00 9.02e+02 2.27e+02 0.00e+00 0.00e+00
+          <t>[8.99e+02 4.00e-02 6.00e+02 0.00e+00 8.33e+02 7.00e+02 0.00e+00 0.00e+00
  1.00e+00]</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>[0.02 0.01 0.08 0.  ]</t>
+          <t>[0.07 0.09 0.04 0.  ]</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1459,13 +1455,13 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[6.51e+02 6.00e-02 8.67e+02 0.00e+00 7.41e+02 9.59e+02 0.00e+00 0.00e+00
+          <t>[9.27e+02 3.00e-02 6.00e+02 0.00e+00 8.85e+02 7.00e+02 0.00e+00 0.00e+00
  1.00e+00]</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>[0.07 0.08 0.02 0.04]</t>
+          <t>[0.06 0.04 0.08 0.03]</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">

--- a/data_synthetic/synthetic.xlsx
+++ b/data_synthetic/synthetic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[843.   0. 640.   0. 843. 480.   0.   0.   1.]</t>
+          <t>[900.   0. 640.   0. 900. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -496,17 +496,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[994.   0. 640.   0. 994. 480.   0.   0.   1.]</t>
+          <t>[809.   0. 640.   0. 809. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[0.05 0.   0.   0.   0.  ]</t>
+          <t>[0. 0. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'no'}</t>
         </is>
       </c>
     </row>
@@ -521,17 +521,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[811.   0. 640.   0. 811. 480.   0.   0.   1.]</t>
+          <t>[869.   0. 640.   0. 869. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[0.06 0.08 0.   0.   0.  ]</t>
+          <t>[0. 0. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1_k2'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'no'}</t>
         </is>
       </c>
     </row>
@@ -546,17 +546,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[904.   0. 640.   0. 904. 480.   0.   0.   1.]</t>
+          <t>[834.   0. 640.   0. 834. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[0.07 0.02 0.02 0.   0.  ]</t>
+          <t>[0. 0. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1_k2_k3'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'no'}</t>
         </is>
       </c>
     </row>
@@ -571,17 +571,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[801.   0. 640.   0. 801. 480.   0.   0.   1.]</t>
+          <t>[996.   0. 640.   0. 996. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[0.07 0.07 0.05 0.06 0.07]</t>
+          <t>[0. 0. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1_k2_p1_p2_k3'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'no'}</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[826.   0. 640.   0. 894. 480.   0.   0.   1.]</t>
+          <t>[854.   0. 640.   0. 854. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'no'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'no'}</t>
         </is>
       </c>
     </row>
@@ -621,17 +621,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[936.   0. 640.   0. 855. 480.   0.   0.   1.]</t>
+          <t>[809.   0. 640.   0. 809. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[0.07 0.   0.   0.   0.  ]</t>
+          <t>[0. 0. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'no'}</t>
         </is>
       </c>
     </row>
@@ -646,17 +646,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[858.   0. 640.   0. 851. 480.   0.   0.   1.]</t>
+          <t>[936.   0. 640.   0. 936. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[0.09 0.   0.   0.   0.  ]</t>
+          <t>[0. 0. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1_k2'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'no'}</t>
         </is>
       </c>
     </row>
@@ -671,17 +671,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[835.   0. 640.   0. 958. 480.   0.   0.   1.]</t>
+          <t>[858.   0. 640.   0. 858. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[0.02 0.02 0.09 0.   0.  ]</t>
+          <t>[0. 0. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1_k2_k3'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'no'}</t>
         </is>
       </c>
     </row>
@@ -696,17 +696,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[999.   0. 640.   0. 899. 480.   0.   0.   1.]</t>
+          <t>[876.   0. 640.   0. 876. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[0.02 0.01 0.05 0.08 0.06]</t>
+          <t>[0. 0. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1_k2_p1_p2_k3'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'no'}</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[940.   0. 600.   0. 940. 700.   0.   0.   1.]</t>
+          <t>[988.   0. 640.   0. 988. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0. 0.]</t>
+          <t>[0.02 0.   0.   0.   0.  ]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'no'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1'}</t>
         </is>
       </c>
     </row>
@@ -746,17 +746,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[994.   0. 600.   0. 994. 700.   0.   0.   1.]</t>
+          <t>[950.   0. 640.   0. 950. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[0.03 0.   0.   0.   0.  ]</t>
+          <t>[0.09 0.   0.   0.   0.  ]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1'}</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[985.   0. 600.   0. 985. 700.   0.   0.   1.]</t>
+          <t>[819.   0. 640.   0. 819. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[0.07 0.07 0.   0.   0.  ]</t>
+          <t>[0.03 0.   0.   0.   0.  ]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1_k2'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1'}</t>
         </is>
       </c>
     </row>
@@ -796,17 +796,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[977.   0. 600.   0. 977. 700.   0.   0.   1.]</t>
+          <t>[874.   0. 640.   0. 874. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[0.06 0.07 0.01 0.   0.  ]</t>
+          <t>[0.04 0.   0.   0.   0.  ]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1_k2_k3'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1'}</t>
         </is>
       </c>
     </row>
@@ -821,17 +821,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[900.   0. 600.   0. 900. 700.   0.   0.   1.]</t>
+          <t>[888.   0. 640.   0. 888. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[0.08 0.05 0.05 0.09 0.04]</t>
+          <t>[0.09 0.   0.   0.   0.  ]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1_k2_p1_p2_k3'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1'}</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[963.   0. 600.   0. 959. 700.   0.   0.   1.]</t>
+          <t>[895.   0. 640.   0. 895. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'no'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1'}</t>
         </is>
       </c>
     </row>
@@ -871,17 +871,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[898.   0. 600.   0. 931. 700.   0.   0.   1.]</t>
+          <t>[987.   0. 640.   0. 987. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[0.06 0.   0.   0.   0.  ]</t>
+          <t>[0.07 0.   0.   0.   0.  ]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1'}</t>
         </is>
       </c>
     </row>
@@ -896,17 +896,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[823.   0. 600.   0. 933. 700.   0.   0.   1.]</t>
+          <t>[964.   0. 640.   0. 964. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[0.06 0.   0.   0.   0.  ]</t>
+          <t>[0.07 0.   0.   0.   0.  ]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1'}</t>
         </is>
       </c>
     </row>
@@ -921,17 +921,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[918.   0. 600.   0. 903. 700.   0.   0.   1.]</t>
+          <t>[815.   0. 640.   0. 815. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[0.01 0.06 0.04 0.   0.  ]</t>
+          <t>[0.04 0.   0.   0.   0.  ]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_k3'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1'}</t>
         </is>
       </c>
     </row>
@@ -946,17 +946,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[936.   0. 600.   0. 902. 700.   0.   0.   1.]</t>
+          <t>[952.   0. 640.   0. 952. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[0.07 0.03 0.02 0.04 0.09]</t>
+          <t>[0.03 0.   0.   0.   0.  ]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_p1_p2_k3'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1'}</t>
         </is>
       </c>
     </row>
@@ -971,17 +971,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[921.   0. 640.   0. 923. 480.   0.   0.   1.]</t>
+          <t>[808.   0. 640.   0. 808. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0.]</t>
+          <t>[0.05 0.07 0.   0.   0.  ]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'no'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1_k2'}</t>
         </is>
       </c>
     </row>
@@ -996,17 +996,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[984.   0. 640.   0. 898. 480.   0.   0.   1.]</t>
+          <t>[894.   0. 640.   0. 894. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[0.03 0.   0.   0.  ]</t>
+          <t>[0.06 0.08 0.   0.   0.  ]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1_k2'}</t>
         </is>
       </c>
     </row>
@@ -1021,17 +1021,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[927.   0. 640.   0. 819. 480.   0.   0.   1.]</t>
+          <t>[859.   0. 640.   0. 859. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[0.04 0.09 0.   0.  ]</t>
+          <t>[0.03 0.02 0.   0.   0.  ]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1_k2'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1_k2'}</t>
         </is>
       </c>
     </row>
@@ -1046,17 +1046,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[923.   0. 640.   0. 901. 480.   0.   0.   1.]</t>
+          <t>[860.   0. 640.   0. 860. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[0.08 0.08 0.06 0.  ]</t>
+          <t>[0.04 0.09 0.   0.   0.  ]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1_k2_k3'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1_k2'}</t>
         </is>
       </c>
     </row>
@@ -1071,17 +1071,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[872.   0. 640.   0. 952. 480.   0.   0.   1.]</t>
+          <t>[943.   0. 640.   0. 943. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[0.05 0.01 0.07 0.07]</t>
+          <t>[0.07 0.04 0.   0.   0.  ]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1_k2_k3_k4'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1_k2'}</t>
         </is>
       </c>
     </row>
@@ -1096,18 +1096,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[8.16e+02 1.00e-02 6.40e+02 0.00e+00 8.39e+02 4.80e+02 0.00e+00 0.00e+00
- 1.00e+00]</t>
+          <t>[850.   0. 640.   0. 850. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0.]</t>
+          <t>[0.03 0.08 0.   0.   0.  ]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'no'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1_k2'}</t>
         </is>
       </c>
     </row>
@@ -1122,18 +1121,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[8.63e+02 2.00e-02 6.40e+02 0.00e+00 8.54e+02 4.80e+02 0.00e+00 0.00e+00
- 1.00e+00]</t>
+          <t>[867.   0. 640.   0. 867. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[0.06 0.   0.   0.  ]</t>
+          <t>[0.01 0.   0.   0.   0.  ]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1_k2'}</t>
         </is>
       </c>
     </row>
@@ -1148,18 +1146,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[9.42e+02 4.00e-02 6.40e+02 0.00e+00 9.14e+02 4.80e+02 0.00e+00 0.00e+00
- 1.00e+00]</t>
+          <t>[957.   0. 640.   0. 957. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[0.02 0.03 0.   0.  ]</t>
+          <t>[0.06 0.02 0.   0.   0.  ]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1_k2'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1_k2'}</t>
         </is>
       </c>
     </row>
@@ -1174,18 +1171,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[8.87e+02 3.00e-02 6.40e+02 0.00e+00 9.64e+02 4.80e+02 0.00e+00 0.00e+00
- 1.00e+00]</t>
+          <t>[917.   0. 640.   0. 917. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[0.04 0.09 0.01 0.  ]</t>
+          <t>[0.01 0.   0.   0.   0.  ]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1_k2_k3'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1_k2'}</t>
         </is>
       </c>
     </row>
@@ -1200,18 +1196,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[9.00e+02 3.00e-02 6.40e+02 0.00e+00 8.54e+02 4.80e+02 0.00e+00 0.00e+00
- 1.00e+00]</t>
+          <t>[882.   0. 640.   0. 882. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[0.09 0.02 0.04 0.02]</t>
+          <t>[0.05 0.02 0.   0.   0.  ]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1_k2_k3_k4'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1_k2'}</t>
         </is>
       </c>
     </row>
@@ -1226,17 +1221,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[889.   0. 600.   0. 856. 700.   0.   0.   1.]</t>
+          <t>[878.   0. 640.   0. 878. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0.]</t>
+          <t>[0.08 0.05 0.09 0.   0.  ]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'no'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1_k2_k3'}</t>
         </is>
       </c>
     </row>
@@ -1251,17 +1246,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[833.   0. 600.   0. 934. 700.   0.   0.   1.]</t>
+          <t>[826.   0. 640.   0. 826. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[0.03 0.   0.   0.  ]</t>
+          <t>[0.02 0.04 0.04 0.   0.  ]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1_k2_k3'}</t>
         </is>
       </c>
     </row>
@@ -1276,17 +1271,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[989.   0. 600.   0. 893. 700.   0.   0.   1.]</t>
+          <t>[806.   0. 640.   0. 806. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[0.07 0.06 0.   0.  ]</t>
+          <t>[0.07 0.04 0.01 0.   0.  ]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1_k2_k3'}</t>
         </is>
       </c>
     </row>
@@ -1301,17 +1296,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[873.   0. 600.   0. 804. 700.   0.   0.   1.]</t>
+          <t>[827.   0. 640.   0. 827. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>[0.06 0.07 0.03 0.  ]</t>
+          <t>[0.08 0.05 0.03 0.   0.  ]</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_k3'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1_k2_k3'}</t>
         </is>
       </c>
     </row>
@@ -1326,17 +1321,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[810.   0. 600.   0. 980. 700.   0.   0.   1.]</t>
+          <t>[964.   0. 640.   0. 964. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[0.08 0.01 0.04 0.07]</t>
+          <t>[0.02 0.07 0.04 0.   0.  ]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_k3_k4'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1_k2_k3'}</t>
         </is>
       </c>
     </row>
@@ -1351,18 +1346,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[8.68e+02 7.00e-02 6.00e+02 0.00e+00 9.76e+02 7.00e+02 0.00e+00 0.00e+00
- 1.00e+00]</t>
+          <t>[842.   0. 640.   0. 842. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0.]</t>
+          <t>[0.05 0.   0.04 0.   0.  ]</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'no'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1_k2_k3'}</t>
         </is>
       </c>
     </row>
@@ -1377,18 +1371,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[9.40e+02 7.00e-02 6.00e+02 0.00e+00 8.29e+02 7.00e+02 0.00e+00 0.00e+00
- 1.00e+00]</t>
+          <t>[847.   0. 640.   0. 847. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[0.05 0.   0.   0.  ]</t>
+          <t>[0.04 0.07 0.08 0.   0.  ]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1_k2_k3'}</t>
         </is>
       </c>
     </row>
@@ -1403,18 +1396,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[9.52e+02 3.00e-02 6.00e+02 0.00e+00 9.13e+02 7.00e+02 0.00e+00 0.00e+00
- 1.00e+00]</t>
+          <t>[950.   0. 640.   0. 950. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[0.04 0.02 0.   0.  ]</t>
+          <t>[0.05 0.02 0.03 0.   0.  ]</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1_k2'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1_k2_k3'}</t>
         </is>
       </c>
     </row>
@@ -1429,18 +1421,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>[8.99e+02 4.00e-02 6.00e+02 0.00e+00 8.33e+02 7.00e+02 0.00e+00 0.00e+00
- 1.00e+00]</t>
+          <t>[976.   0. 640.   0. 976. 480.   0.   0.   1.]</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>[0.07 0.09 0.04 0.  ]</t>
+          <t>[0.09 0.07 0.08 0.   0.  ]</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1_k2_k3'}</t>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1_k2_k3'}</t>
         </is>
       </c>
     </row>
@@ -1455,16 +1446,9107 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[9.27e+02 3.00e-02 6.00e+02 0.00e+00 8.85e+02 7.00e+02 0.00e+00 0.00e+00
+          <t>[939.   0. 640.   0. 939. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>[0.03 0.06 0.06 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt41.npy</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>[966.   0. 640.   0. 966. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>[0.01 0.03 0.04 0.04 0.06]</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt42.npy</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>[938.   0. 640.   0. 938. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>[0.03 0.03 0.01 0.07 0.08]</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt43.npy</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>[920.   0. 640.   0. 920. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>[0.06 0.01 0.06 0.09 0.03]</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt44.npy</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>[953.   0. 640.   0. 953. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>[0.08 0.07 0.07 0.06 0.02]</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt45.npy</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>[959.   0. 640.   0. 959. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>[0.02 0.02 0.03 0.05 0.07]</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt46.npy</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>[836.   0. 640.   0. 836. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>[0.06 0.09 0.06 0.   0.03]</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt47.npy</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>[985.   0. 640.   0. 985. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>[0.01 0.02 0.01 0.04 0.02]</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt48.npy</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>[891.   0. 640.   0. 891. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>[0.   0.01 0.07 0.04 0.07]</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt49.npy</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>[892.   0. 640.   0. 892. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>[0.04 0.09 0.05 0.09 0.01]</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt50.npy</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>[823.   0. 640.   0. 823. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>[0.01 0.02 0.07 0.02 0.06]</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt51.npy</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>[948.   0. 640.   0. 982. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt52.npy</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>[809.   0. 640.   0. 952. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt53.npy</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>[856.   0. 640.   0. 888. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt54.npy</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>[956.   0. 640.   0. 869. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt55.npy</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>[811.   0. 640.   0. 814. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt56.npy</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>[895.   0. 640.   0. 905. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt57.npy</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>[945.   0. 640.   0. 807. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt58.npy</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>[834.   0. 640.   0. 959. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt59.npy</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>[945.   0. 640.   0. 900. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt60.npy</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>[855.   0. 640.   0. 999. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt61.npy</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>[843.   0. 640.   0. 829. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>[0.05 0.   0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt62.npy</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>[910.   0. 640.   0. 987. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>[0.04 0.   0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt63.npy</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>[951.   0. 640.   0. 839. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>[0.09 0.   0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt64.npy</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>[970.   0. 640.   0. 917. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>[0.07 0.   0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt65.npy</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>[875.   0. 640.   0. 905. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>[0.02 0.   0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt66.npy</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>[880.   0. 640.   0. 994. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>[0.04 0.   0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt67.npy</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>[ 937.    0.  640.    0. 1000.  480.    0.    0.    1.]</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt68.npy</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>[877.   0. 640.   0. 953. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>[0.01 0.   0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt69.npy</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>[862.   0. 640.   0. 868. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>[0.03 0.   0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt70.npy</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>[919.   0. 640.   0. 987. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>[0.04 0.   0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt71.npy</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>[973.   0. 640.   0. 950. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>[0.03 0.01 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt72.npy</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>[998.   0. 640.   0. 836. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>[0.05 0.08 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt73.npy</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>[994.   0. 640.   0. 960. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>[0.02 0.05 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt74.npy</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>[989.   0. 640.   0. 815. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>[0.07 0.08 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt75.npy</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>[963.   0. 640.   0. 931. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>[0.02 0.02 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt76.npy</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>[893.   0. 640.   0. 851. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>[0.09 0.01 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt77.npy</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>[864.   0. 640.   0. 935. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>[0.07 0.02 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt78.npy</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>[929.   0. 640.   0. 954. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>[0.02 0.06 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt79.npy</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>[921.   0. 640.   0. 973. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>[0.02 0.06 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt80.npy</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>[880.   0. 640.   0. 948. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>[0.05 0.06 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt81.npy</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>[985.   0. 640.   0. 947. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>[0.05 0.03 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt82.npy</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>[969.   0. 640.   0. 814. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>[0.05 0.07 0.01 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt83.npy</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>[895.   0. 640.   0. 966. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>[0.03 0.08 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt84.npy</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>[877.   0. 640.   0. 939. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>[0.09 0.08 0.01 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt85.npy</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>[943.   0. 640.   0. 862. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>[0.02 0.   0.01 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt86.npy</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>[861.   0. 640.   0. 822. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>[0.06 0.07 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt87.npy</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>[945.   0. 640.   0. 877. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>[0.07 0.09 0.04 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt88.npy</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>[986.   0. 640.   0. 938. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>[0.01 0.05 0.09 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt89.npy</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>[816.   0. 640.   0. 827. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>[0.01 0.05 0.06 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt90.npy</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>[866.   0. 640.   0. 937. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>[0.07 0.09 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt91.npy</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>[959.   0. 640.   0. 908. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>[0.08 0.02 0.06 0.02 0.03]</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt92.npy</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>[851.   0. 640.   0. 932. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>[0.01 0.01 0.05 0.02 0.03]</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt93.npy</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>[923.   0. 640.   0. 930. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>[0.04 0.05 0.06 0.02 0.08]</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt94.npy</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>[851.   0. 640.   0. 978. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>[0.09 0.02 0.08 0.02 0.01]</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt95.npy</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>[827.   0. 640.   0. 952. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>[0.04 0.08 0.05 0.06 0.01]</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt96.npy</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>[890.   0. 640.   0. 850. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>[0.02 0.02 0.05 0.03 0.04]</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt97.npy</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>[963.   0. 640.   0. 807. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>[0.03 0.06 0.01 0.07 0.05]</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt98.npy</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>[867.   0. 640.   0. 828. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>[0.01 0.   0.05 0.01 0.04]</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt99.npy</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>[852.   0. 640.   0. 828. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>[0.06 0.07 0.01 0.02 0.02]</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt100.npy</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>[824.   0. 640.   0. 808. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>[0.03 0.01 0.09 0.08 0.05]</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt101.npy</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>[908.   0. 641.   0. 908. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt102.npy</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>[931.   0. 646.   0. 931. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt103.npy</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>[872.   0. 643.   0. 872. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt104.npy</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>[880.   0. 633.   0. 880. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt105.npy</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>[956.   0. 636.   0. 956. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt106.npy</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>[925.   0. 639.   0. 925. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt107.npy</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>[823.   0. 647.   0. 823. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt108.npy</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>[832.   0. 633.   0. 832. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt109.npy</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>[894.   0. 648.   0. 894. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt110.npy</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>[924.   0. 636.   0. 924. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt111.npy</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>[858.   0. 634.   0. 858. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>[0.02 0.   0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt112.npy</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>[894.   0. 637.   0. 894. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>[0.07 0.   0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt113.npy</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>[905.   0. 633.   0. 905. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt114.npy</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>[834.   0. 648.   0. 834. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>[0.02 0.   0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt115.npy</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>[983.   0. 637.   0. 983. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>[0.04 0.   0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt116.npy</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>[875.   0. 649.   0. 875. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>[0.05 0.   0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt117.npy</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>[869.   0. 647.   0. 869. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>[0.06 0.   0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt118.npy</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>[936.   0. 645.   0. 936. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>[0.06 0.   0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt119.npy</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>[974.   0. 647.   0. 974. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>[0.09 0.   0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt120.npy</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>[857.   0. 643.   0. 857. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>[0.04 0.   0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt121.npy</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>[943.   0. 630.   0. 943. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>[0.03 0.01 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt122.npy</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>[887.   0. 647.   0. 887. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>[0.02 0.08 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt123.npy</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>[923.   0. 638.   0. 923. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>[0.06 0.05 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt124.npy</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>[954.   0. 634.   0. 954. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>[0.05 0.   0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt125.npy</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>[990.   0. 650.   0. 990. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>[0.09 0.04 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt126.npy</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>[828.   0. 648.   0. 828. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>[0.03 0.02 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt127.npy</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>[965.   0. 650.   0. 965. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>[0.01 0.05 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt128.npy</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>[986.   0. 637.   0. 986. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>[0.07 0.07 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt129.npy</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>[985.   0. 638.   0. 985. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>[0.04 0.01 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt130.npy</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>[923.   0. 630.   0. 923. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>[0.07 0.04 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt131.npy</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>[962.   0. 631.   0. 962. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>[0.05 0.08 0.06 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt132.npy</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>[905.   0. 632.   0. 905. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>[0.04 0.03 0.06 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt133.npy</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>[937.   0. 630.   0. 937. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>[0.04 0.01 0.05 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt134.npy</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>[926.   0. 635.   0. 926. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>[0.04 0.06 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt135.npy</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>[905.   0. 644.   0. 905. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>[0.05 0.09 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt136.npy</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>[918.   0. 647.   0. 918. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>[0.08 0.01 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt137.npy</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>[933.   0. 645.   0. 933. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>[0.05 0.06 0.01 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt138.npy</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>[963.   0. 634.   0. 963. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>[0.06 0.05 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt139.npy</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>[999.   0. 649.   0. 999. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>[0.04 0.05 0.05 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt140.npy</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>[809.   0. 638.   0. 809. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>[0.03 0.09 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt141.npy</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>[827.   0. 645.   0. 827. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>[0.05 0.07 0.05 0.02 0.05]</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt142.npy</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>[802.   0. 635.   0. 802. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>[0.06 0.01 0.09 0.03 0.04]</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt143.npy</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>[916.   0. 649.   0. 916. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>[0.   0.04 0.01 0.02 0.09]</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt144.npy</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>[935.   0. 630.   0. 935. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>[0.02 0.03 0.03 0.02 0.  ]</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt145.npy</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>[831.   0. 634.   0. 831. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>[0.03 0.01 0.08 0.07 0.06]</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt146.npy</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>[863.   0. 639.   0. 863. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>[0.   0.06 0.05 0.   0.06]</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt147.npy</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>[801.   0. 639.   0. 801. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>[0.05 0.07 0.07 0.06 0.01]</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt148.npy</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>[872.   0. 649.   0. 872. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>[0.07 0.09 0.08 0.09 0.06]</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt149.npy</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>[896.   0. 643.   0. 896. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>[0.05 0.05 0.03 0.03 0.05]</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt150.npy</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>[944.   0. 645.   0. 944. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>[0.09 0.01 0.   0.07 0.06]</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'f_cx_cy', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt151.npy</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>[988.   0. 630.   0. 821. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt152.npy</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>[948.   0. 630.   0. 899. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt153.npy</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>[975.   0. 646.   0. 909. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt154.npy</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>[888.   0. 645.   0. 919. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt155.npy</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>[913.   0. 630.   0. 900. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt156.npy</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>[824.   0. 644.   0. 833. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt157.npy</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>[975.   0. 632.   0. 831. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt158.npy</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>[922.   0. 631.   0. 933. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt159.npy</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>[803.   0. 636.   0. 880. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt160.npy</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>[956.   0. 634.   0. 833. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt161.npy</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>[826.   0. 636.   0. 892. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>[0.02 0.   0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt162.npy</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>[967.   0. 631.   0. 964. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>[0.02 0.   0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt163.npy</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>[909.   0. 632.   0. 976. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>[0.06 0.   0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt164.npy</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>[811.   0. 648.   0. 966. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>[0.05 0.   0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt165.npy</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>[869.   0. 640.   0. 878. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>[0.07 0.   0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt166.npy</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>[819.   0. 644.   0. 894. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>[0.06 0.   0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt167.npy</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>[881.   0. 641.   0. 832. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>[0.08 0.   0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt168.npy</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>[947.   0. 642.   0. 966. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>[0.04 0.   0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt169.npy</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>[967.   0. 648.   0. 834. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>[0.08 0.   0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt170.npy</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>[819.   0. 646.   0. 909. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>[0.01 0.   0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt171.npy</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>[893.   0. 648.   0. 982. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>[0.07 0.   0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt172.npy</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>[926.   0. 635.   0. 911. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>[0.04 0.05 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt173.npy</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>[982.   0. 649.   0. 865. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>[0.08 0.08 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt174.npy</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>[857.   0. 644.   0. 845. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>[0.07 0.01 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt175.npy</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>[981.   0. 638.   0. 853. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>[0.02 0.05 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt176.npy</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>[811.   0. 639.   0. 967. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>[0.04 0.04 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt177.npy</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>[978.   0. 640.   0. 973. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>[0.08 0.06 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt178.npy</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>[945.   0. 645.   0. 962. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>[0.05 0.06 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt179.npy</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>[963.   0. 632.   0. 975. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>[0.04 0.02 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt180.npy</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>[926.   0. 643.   0. 978. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>[0.07 0.04 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt181.npy</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>[897.   0. 648.   0. 980. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>[0.01 0.08 0.03 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt182.npy</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>[819.   0. 632.   0. 935. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>[0.05 0.08 0.05 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt183.npy</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>[829.   0. 648.   0. 955. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>[0.04 0.04 0.02 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt184.npy</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>[927.   0. 635.   0. 817. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>[0.05 0.09 0.07 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt185.npy</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>[854.   0. 636.   0. 825. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>[0.01 0.07 0.03 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt186.npy</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>[827.   0. 637.   0. 891. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>[0.07 0.08 0.03 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt187.npy</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>[882.   0. 630.   0. 833. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>[0.04 0.07 0.08 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt188.npy</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>[819.   0. 634.   0. 805. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>[0.04 0.04 0.07 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt189.npy</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>[913.   0. 643.   0. 839. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>[0.07 0.09 0.09 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt190.npy</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>[896.   0. 649.   0. 956. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>[0.08 0.08 0.07 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt191.npy</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>[896.   0. 646.   0. 912. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>[0.06 0.03 0.01 0.   0.01]</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt192.npy</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>[852.   0. 648.   0. 986. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>[0.06 0.04 0.01 0.05 0.02]</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt193.npy</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>[835.   0. 640.   0. 939. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>[0.02 0.07 0.02 0.04 0.03]</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt194.npy</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>[911.   0. 636.   0. 963. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>[0.   0.02 0.05 0.07 0.03]</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt195.npy</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>[918.   0. 643.   0. 843. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>[0.01 0.09 0.01 0.   0.01]</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt196.npy</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>[983.   0. 642.   0. 927. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>[0.   0.02 0.03 0.02 0.02]</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt197.npy</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>[873.   0. 645.   0. 974. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>[0.02 0.04 0.02 0.05 0.03]</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt198.npy</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>[822.   0. 640.   0. 819. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>[0.08 0.08 0.08 0.06 0.01]</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt199.npy</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>[943.   0. 643.   0. 874. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>[0.06 0.07 0.09 0.08 0.06]</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt200.npy</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>[892.   0. 632.   0. 924. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>[0.02 0.08 0.02 0.04 0.07]</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>{'type': 'normal', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_p1_p2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt201.npy</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>[960.   0. 640.   0. 865. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt202.npy</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>[910.   0. 640.   0. 805. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt203.npy</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>[946.   0. 640.   0. 835. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt204.npy</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>[821.   0. 640.   0. 806. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt205.npy</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>[980.   0. 640.   0. 949. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt206.npy</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>[810.   0. 640.   0. 951. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt207.npy</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>[910.   0. 640.   0. 890. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt208.npy</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>[956.   0. 640.   0. 957. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt209.npy</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>[876.   0. 640.   0. 839. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt210.npy</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>[ 897.    0.  640.    0. 1000.  480.    0.    0.    1.]</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt211.npy</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>[820.   0. 640.   0. 804. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>[0.02 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt212.npy</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>[864.   0. 640.   0. 805. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>[0.03 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt213.npy</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>[807.   0. 640.   0. 826. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>[0.05 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt214.npy</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>[877.   0. 640.   0. 872. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>[0.06 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt215.npy</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>[944.   0. 640.   0. 884. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>[0.02 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt216.npy</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>[955.   0. 640.   0. 858. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>[0.09 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt217.npy</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>[862.   0. 640.   0. 869. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>[0.05 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt218.npy</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>[856.   0. 640.   0. 963. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>[0.03 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt219.npy</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>[871.   0. 640.   0. 975. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>[0.05 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt220.npy</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>[846.   0. 640.   0. 848. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>[0.04 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt221.npy</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>[945.   0. 640.   0. 845. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>[0.09 0.09 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt222.npy</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>[984.   0. 640.   0. 992. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>[0.09 0.07 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt223.npy</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>[883.   0. 640.   0. 867. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>[0.07 0.04 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt224.npy</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>[824.   0. 640.   0. 887. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>[0.03 0.05 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt225.npy</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>[956.   0. 640.   0. 926. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>[0.06 0.08 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt226.npy</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>[946.   0. 640.   0. 917. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>[0.03 0.07 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt227.npy</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>[862.   0. 640.   0. 876. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>[0.04 0.04 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt228.npy</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>[934.   0. 640.   0. 950. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>[0.03 0.06 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt229.npy</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>[904.   0. 640.   0. 899. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>[0.03 0.03 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt230.npy</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>[835.   0. 640.   0. 925. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>[0.03 0.08 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt231.npy</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>[908.   0. 640.   0. 987. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>[0.02 0.09 0.06 0.  ]</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt232.npy</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>[930.   0. 640.   0. 923. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>[0.01 0.02 0.06 0.  ]</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt233.npy</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>[880.   0. 640.   0. 866. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>[0.03 0.03 0.01 0.  ]</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt234.npy</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>[894.   0. 640.   0. 933. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>[0.01 0.08 0.04 0.  ]</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt235.npy</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>[857.   0. 640.   0. 909. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>[0.07 0.03 0.02 0.  ]</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt236.npy</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>[879.   0. 640.   0. 974. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>[0.09 0.04 0.02 0.  ]</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt237.npy</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>[836.   0. 640.   0. 840. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>[0.08 0.03 0.01 0.  ]</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt238.npy</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>[843.   0. 640.   0. 802. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>[0.07 0.08 0.06 0.  ]</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt239.npy</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>[877.   0. 640.   0. 809. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>[0.02 0.06 0.09 0.  ]</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt240.npy</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>[946.   0. 640.   0. 826. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>[0.03 0.02 0.05 0.  ]</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt241.npy</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>[980.   0. 640.   0. 856. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>[0.01 0.08 0.04 0.02]</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt242.npy</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>[896.   0. 640.   0. 817. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>[0.03 0.05 0.02 0.07]</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt243.npy</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>[877.   0. 640.   0. 908. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>[0.02 0.08 0.09 0.04]</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt244.npy</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>[968.   0. 640.   0. 917. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>[0.   0.07 0.02 0.02]</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt245.npy</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>[852.   0. 640.   0. 973. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>[0.07 0.07 0.08 0.05]</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt246.npy</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>[930.   0. 640.   0. 803. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>[0.08 0.03 0.   0.08]</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt247.npy</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>[866.   0. 640.   0. 819. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>[0.08 0.06 0.08 0.09]</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt248.npy</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>[954.   0. 640.   0. 906. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>[0.03 0.04 0.06 0.02]</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt249.npy</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>[974.   0. 640.   0. 956. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>[0.08 0.09 0.07 0.01]</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt250.npy</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>[981.   0. 640.   0. 840. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>[0.02 0.   0.01 0.01]</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt251.npy</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>[9.55e+02 3.00e-02 6.40e+02 0.00e+00 9.90e+02 4.80e+02 0.00e+00 0.00e+00
  1.00e+00]</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>[0.06 0.04 0.08 0.03]</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt252.npy</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>[9.92e+02 3.00e-02 6.40e+02 0.00e+00 9.12e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt253.npy</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>[9.48e+02 9.00e-02 6.40e+02 0.00e+00 9.42e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt254.npy</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>[926.   0. 640.   0. 839. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt255.npy</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>[8.83e+02 2.00e-02 6.40e+02 0.00e+00 8.69e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt256.npy</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>[8.96e+02 8.00e-02 6.40e+02 0.00e+00 9.58e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt257.npy</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>[8.95e+02 3.00e-02 6.40e+02 0.00e+00 9.89e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt258.npy</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>[8.06e+02 3.00e-02 6.40e+02 0.00e+00 8.36e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt259.npy</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>[9.92e+02 1.00e-02 6.40e+02 0.00e+00 9.22e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt260.npy</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>[9.52e+02 2.00e-02 6.40e+02 0.00e+00 9.61e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt261.npy</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>[8.93e+02 1.00e-02 6.40e+02 0.00e+00 9.54e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>[0.01 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt262.npy</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>[8.05e+02 2.00e-02 6.40e+02 0.00e+00 8.16e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>[0.08 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt263.npy</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>[8.97e+02 2.00e-02 6.40e+02 0.00e+00 9.25e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>[0.05 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt264.npy</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>[853.   0. 640.   0. 882. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>[0.08 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt265.npy</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>[8.55e+02 3.00e-02 6.40e+02 0.00e+00 9.95e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>[0.07 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt266.npy</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>[9.36e+02 9.00e-02 6.40e+02 0.00e+00 8.13e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>[0.04 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt267.npy</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>[8.92e+02 5.00e-02 6.40e+02 0.00e+00 8.41e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>[0.09 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt268.npy</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>[9.39e+02 2.00e-02 6.40e+02 0.00e+00 8.20e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>[0.07 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt269.npy</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>[8.62e+02 2.00e-02 6.40e+02 0.00e+00 1.00e+03 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>[0.01 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt270.npy</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>[9.15e+02 7.00e-02 6.40e+02 0.00e+00 9.29e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>[0.02 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt271.npy</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>[8.40e+02 7.00e-02 6.40e+02 0.00e+00 8.85e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>[0.02 0.02 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt272.npy</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>[9.93e+02 4.00e-02 6.40e+02 0.00e+00 8.18e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>[0.04 0.05 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt273.npy</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>[9.46e+02 2.00e-02 6.40e+02 0.00e+00 8.27e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>[0.08 0.03 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt274.npy</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>[9.18e+02 5.00e-02 6.40e+02 0.00e+00 9.52e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt275.npy</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>[8.91e+02 8.00e-02 6.40e+02 0.00e+00 9.50e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>[0.04 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt276.npy</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>[8.28e+02 8.00e-02 6.40e+02 0.00e+00 9.95e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>[0.07 0.09 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt277.npy</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>[9.64e+02 4.00e-02 6.40e+02 0.00e+00 9.35e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>[0.06 0.04 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt278.npy</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>[9.60e+02 2.00e-02 6.40e+02 0.00e+00 9.56e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>[0.03 0.05 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt279.npy</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>[9.74e+02 4.00e-02 6.40e+02 0.00e+00 9.31e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>[0.07 0.07 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt280.npy</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>[9.99e+02 7.00e-02 6.40e+02 0.00e+00 8.42e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>[0.06 0.08 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>281</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt281.npy</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>[8.58e+02 4.00e-02 6.40e+02 0.00e+00 8.80e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>[0.05 0.01 0.01 0.  ]</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt282.npy</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>[842.   0. 640.   0. 886. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>[0.05 0.05 0.02 0.  ]</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>283</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt283.npy</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>[8.31e+02 7.00e-02 6.40e+02 0.00e+00 8.02e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>[0.05 0.04 0.07 0.  ]</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>284</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt284.npy</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>[8.05e+02 5.00e-02 6.40e+02 0.00e+00 9.75e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>[0.02 0.09 0.03 0.  ]</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>285</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt285.npy</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>[9.43e+02 8.00e-02 6.40e+02 0.00e+00 9.97e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>[0.08 0.05 0.04 0.  ]</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>286</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt286.npy</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>[9.31e+02 1.00e-02 6.40e+02 0.00e+00 9.41e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>[0.   0.02 0.08 0.  ]</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>287</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt287.npy</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>[9.36e+02 7.00e-02 6.40e+02 0.00e+00 9.33e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>[0.01 0.02 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>288</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt288.npy</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>[8.36e+02 3.00e-02 6.40e+02 0.00e+00 9.43e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>[0.07 0.02 0.08 0.  ]</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>289</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt289.npy</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>[9.83e+02 7.00e-02 6.40e+02 0.00e+00 8.94e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>[0.06 0.06 0.01 0.  ]</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>290</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt290.npy</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>[8.38e+02 7.00e-02 6.40e+02 0.00e+00 8.87e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>[0.   0.03 0.01 0.  ]</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>291</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt291.npy</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>[9.14e+02 3.00e-02 6.40e+02 0.00e+00 8.28e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>[0.03 0.02 0.06 0.05]</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>292</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt292.npy</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>[9.95e+02 2.00e-02 6.40e+02 0.00e+00 8.05e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>[0.03 0.04 0.07 0.06]</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>293</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt293.npy</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>[9.32e+02 4.00e-02 6.40e+02 0.00e+00 9.01e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>[0.08 0.02 0.08 0.06]</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>294</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt294.npy</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>[9.11e+02 5.00e-02 6.40e+02 0.00e+00 8.91e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>[0.08 0.04 0.02 0.02]</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>295</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt295.npy</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>[8.11e+02 2.00e-02 6.40e+02 0.00e+00 9.63e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>[0.07 0.07 0.   0.02]</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>296</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt296.npy</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>[970.   0. 640.   0. 856. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>[0.04 0.04 0.02 0.07]</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>297</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt297.npy</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>[819.   0. 640.   0. 928. 480.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>[0.05 0.02 0.08 0.02]</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>298</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt298.npy</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>[9.48e+02 4.00e-02 6.40e+02 0.00e+00 8.31e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>[0.01 0.08 0.03 0.02]</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>299</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt299.npy</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>[8.16e+02 2.00e-02 6.40e+02 0.00e+00 8.54e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>[0.08 0.08 0.   0.02]</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>300</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt300.npy</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>[8.42e+02 6.00e-02 6.40e+02 0.00e+00 9.83e+02 4.80e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>[0.02 0.04 0.08 0.02]</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_s', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>301</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt301.npy</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>[804.   0. 644.   0. 973. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>302</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt302.npy</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>[857.   0. 638.   0. 894. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>303</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt303.npy</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>[950.   0. 630.   0. 832. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>304</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt304.npy</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>[940.   0. 633.   0. 891. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>305</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt305.npy</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>[866.   0. 646.   0. 991. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>306</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt306.npy</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>[995.   0. 648.   0. 816. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>307</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt307.npy</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>[904.   0. 640.   0. 895. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>308</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt308.npy</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>[994.   0. 637.   0. 893. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>309</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt309.npy</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>[977.   0. 639.   0. 919. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>310</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt310.npy</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>[855.   0. 643.   0. 895. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>311</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt311.npy</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>[894.   0. 645.   0. 818. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>[0.02 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>312</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt312.npy</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>[899.   0. 637.   0. 854. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>[0.06 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>313</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt313.npy</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>[911.   0. 646.   0. 895. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>[0.03 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>314</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt314.npy</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>[998.   0. 630.   0. 882. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>[0.03 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>315</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt315.npy</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>[848.   0. 632.   0. 842. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>[0.01 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>316</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt316.npy</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>[829.   0. 644.   0. 833. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>[0.04 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>317</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt317.npy</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>[939.   0. 647.   0. 949. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>318</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt318.npy</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>[911.   0. 648.   0. 939. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>[0.05 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>319</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt319.npy</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>[822.   0. 634.   0. 909. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>[0.05 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>320</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt320.npy</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>[812.   0. 646.   0. 932. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>[0.09 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>321</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt321.npy</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>[812.   0. 633.   0. 848. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>[0.08 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>322</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt322.npy</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>[840.   0. 650.   0. 815. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>[0.03 0.02 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>323</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt323.npy</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>[919.   0. 637.   0. 811. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>[0.04 0.01 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>324</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt324.npy</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>[924.   0. 637.   0. 990. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>[0.   0.06 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>325</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt325.npy</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>[891.   0. 644.   0. 882. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>[0.04 0.05 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>326</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt326.npy</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>[925.   0. 645.   0. 998. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>[0.03 0.03 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>327</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt327.npy</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>[840.   0. 643.   0. 882. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>[0.02 0.01 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>328</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt328.npy</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>[874.   0. 647.   0. 869. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>[0.07 0.08 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>329</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt329.npy</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>[922.   0. 641.   0. 813. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>[0.05 0.01 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>330</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt330.npy</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>[800.   0. 645.   0. 882. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>[0.03 0.01 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>331</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt331.npy</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>[925.   0. 635.   0. 821. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>[0.06 0.01 0.07 0.  ]</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>332</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt332.npy</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>[976.   0. 641.   0. 871. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>[0.09 0.02 0.05 0.  ]</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>333</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt333.npy</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>[919.   0. 637.   0. 998. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>[0.02 0.07 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>334</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt334.npy</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>[856.   0. 641.   0. 895. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>[0.   0.08 0.08 0.  ]</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>335</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt335.npy</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>[871.   0. 640.   0. 837. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>[0.03 0.05 0.05 0.  ]</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>336</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt336.npy</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>[861.   0. 634.   0. 813. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>[0.06 0.07 0.09 0.  ]</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>337</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt337.npy</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>[887.   0. 641.   0. 862. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>[0.03 0.03 0.06 0.  ]</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>338</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt338.npy</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>[802.   0. 650.   0. 885. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>[0.01 0.01 0.05 0.  ]</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>339</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt339.npy</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>[940.   0. 630.   0. 974. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>[0.04 0.05 0.06 0.  ]</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>340</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt340.npy</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>[875.   0. 640.   0. 948. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>[0.03 0.03 0.01 0.  ]</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>341</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt341.npy</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>[999.   0. 632.   0. 968. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>[0.06 0.06 0.08 0.01]</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>342</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt342.npy</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>[967.   0. 634.   0. 813. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>[0.04 0.02 0.   0.07]</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>343</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt343.npy</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>[885.   0. 630.   0. 936. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>[0.06 0.06 0.03 0.01]</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>344</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt344.npy</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>[997.   0. 630.   0. 935. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>[0.02 0.02 0.08 0.01]</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>345</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt345.npy</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>[865.   0. 631.   0. 939. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>[0.04 0.09 0.07 0.07]</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>346</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt346.npy</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>[934.   0. 639.   0. 809. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>[0.07 0.06 0.04 0.04]</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>347</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt347.npy</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>[811.   0. 638.   0. 824. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>[0.04 0.   0.08 0.02]</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>348</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt348.npy</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>[987.   0. 636.   0. 819. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>[0.03 0.09 0.03 0.06]</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>349</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt349.npy</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>[939.   0. 641.   0. 923. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>[0.04 0.05 0.04 0.02]</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>350</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt350.npy</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>[976.   0. 638.   0. 831. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>[0.02 0.07 0.09 0.03]</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>351</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt351.npy</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>[8.14e+02 5.00e-02 6.30e+02 0.00e+00 9.62e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>352</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt352.npy</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>[9.62e+02 7.00e-02 6.43e+02 0.00e+00 9.42e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>353</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt353.npy</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>[8.65e+02 5.00e-02 6.39e+02 0.00e+00 9.27e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>354</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt354.npy</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>[9.59e+02 7.00e-02 6.40e+02 0.00e+00 9.98e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>355</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt355.npy</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>[8.63e+02 2.00e-02 6.39e+02 0.00e+00 8.91e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>356</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt356.npy</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>[8.33e+02 7.00e-02 6.35e+02 0.00e+00 8.77e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>357</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt357.npy</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>[8.79e+02 1.00e-02 6.38e+02 0.00e+00 9.55e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>358</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt358.npy</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>[9.31e+02 2.00e-02 6.48e+02 0.00e+00 8.30e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>359</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt359.npy</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>[871.   0. 634.   0. 813. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>360</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt360.npy</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>[9.42e+02 1.00e-02 6.46e+02 0.00e+00 8.92e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'no'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>361</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt361.npy</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>[9.14e+02 1.00e-02 6.39e+02 0.00e+00 9.85e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>[0.02 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>362</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt362.npy</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>[8.79e+02 4.00e-02 6.42e+02 0.00e+00 8.99e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>363</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt363.npy</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>[8.32e+02 7.00e-02 6.35e+02 0.00e+00 9.67e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>[0.05 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>364</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt364.npy</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>[820.   0. 634.   0. 944. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>[0.03 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>365</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt365.npy</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>[8.51e+02 7.00e-02 6.37e+02 0.00e+00 8.72e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>[0.01 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>366</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt366.npy</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>[8.05e+02 5.00e-02 6.45e+02 0.00e+00 9.75e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>[0.03 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>367</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt367.npy</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>[9.07e+02 4.00e-02 6.45e+02 0.00e+00 8.75e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>[0.06 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>368</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt368.npy</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>[9.93e+02 1.00e-02 6.36e+02 0.00e+00 9.22e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>[0.05 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>369</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt369.npy</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>[8.29e+02 8.00e-02 6.39e+02 0.00e+00 9.50e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>[0.07 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>370</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt370.npy</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>[8.12e+02 3.00e-02 6.45e+02 0.00e+00 9.28e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>[0.02 0.   0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>371</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt371.npy</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>[8.73e+02 9.00e-02 6.35e+02 0.00e+00 9.99e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>[0.03 0.04 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>372</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt372.npy</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>[9.28e+02 1.00e-02 6.46e+02 0.00e+00 9.75e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>[0.06 0.05 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>373</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt373.npy</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>[824.   0. 641.   0. 905. 490.   0.   0.   1.]</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>[0.01 0.02 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>374</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt374.npy</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>[9.21e+02 3.00e-02 6.48e+02 0.00e+00 9.45e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>[0.02 0.03 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>375</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt375.npy</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>[8.18e+02 9.00e-02 6.30e+02 0.00e+00 9.34e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>[0.04 0.08 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>376</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt376.npy</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>[9.53e+02 3.00e-02 6.30e+02 0.00e+00 8.07e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>[0.02 0.07 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>377</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt377.npy</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>[8.28e+02 3.00e-02 6.47e+02 0.00e+00 9.18e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>[0.05 0.08 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>378</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt378.npy</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>[8.29e+02 4.00e-02 6.32e+02 0.00e+00 9.86e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>[0.02 0.02 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>379</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt379.npy</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>[8.11e+02 8.00e-02 6.35e+02 0.00e+00 9.91e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>[0.06 0.06 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>380</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt380.npy</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>[9.21e+02 2.00e-02 6.50e+02 0.00e+00 8.18e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>[0.08 0.04 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1_k2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>381</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt381.npy</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>[8.36e+02 8.00e-02 6.48e+02 0.00e+00 9.44e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>[0.03 0.06 0.09 0.  ]</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>382</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt382.npy</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>[9.95e+02 7.00e-02 6.50e+02 0.00e+00 9.51e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>[0.09 0.02 0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>383</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt383.npy</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>[9.86e+02 7.00e-02 6.36e+02 0.00e+00 8.41e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>[0.08 0.05 0.01 0.  ]</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>384</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt384.npy</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>[8.03e+02 7.00e-02 6.31e+02 0.00e+00 9.31e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>[0.06 0.01 0.03 0.  ]</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>385</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt385.npy</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>[8.75e+02 4.00e-02 6.31e+02 0.00e+00 9.30e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>[0.04 0.05 0.02 0.  ]</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>386</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt386.npy</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>[8.93e+02 5.00e-02 6.41e+02 0.00e+00 8.21e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>[0.01 0.07 0.04 0.  ]</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>387</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt387.npy</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>[8.14e+02 5.00e-02 6.47e+02 0.00e+00 8.23e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>[0.   0.02 0.04 0.  ]</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>388</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt388.npy</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>[8.14e+02 8.00e-02 6.42e+02 0.00e+00 9.55e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>[0.05 0.06 0.08 0.  ]</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>389</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt389.npy</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>[8.90e+02 9.00e-02 6.33e+02 0.00e+00 8.25e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>[0.06 0.04 0.08 0.  ]</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>390</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt390.npy</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>[8.47e+02 4.00e-02 6.46e+02 0.00e+00 9.76e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>[0.06 0.04 0.07 0.  ]</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1_k2_k3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>391</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt391.npy</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>[9.96e+02 4.00e-02 6.44e+02 0.00e+00 9.69e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>[0.   0.   0.05 0.06]</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>392</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt392.npy</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>[9.08e+02 7.00e-02 6.33e+02 0.00e+00 9.66e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>[0.02 0.07 0.01 0.02]</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>393</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt393.npy</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>[8.30e+02 1.00e-02 6.35e+02 0.00e+00 8.84e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>[0.   0.04 0.07 0.04]</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>394</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt394.npy</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>[9.40e+02 4.00e-02 6.41e+02 0.00e+00 8.97e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>[0.06 0.08 0.   0.02]</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>395</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt395.npy</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>[8.09e+02 3.00e-02 6.46e+02 0.00e+00 8.67e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>[0.08 0.04 0.01 0.05]</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>396</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt396.npy</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>[9.64e+02 2.00e-02 6.43e+02 0.00e+00 9.60e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>[0.01 0.02 0.05 0.08]</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>397</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt397.npy</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>[8.15e+02 8.00e-02 6.46e+02 0.00e+00 9.58e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>[0.03 0.   0.   0.03]</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>398</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt398.npy</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>[9.74e+02 8.00e-02 6.42e+02 0.00e+00 8.86e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>[0.07 0.06 0.   0.03]</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>399</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt399.npy</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>[8.10e+02 2.00e-02 6.41e+02 0.00e+00 8.26e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>[0.03 0.04 0.03 0.03]</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1_k2_k3_k4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>400</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>data_synthetic/synthetic_img_pt400.npy</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>[8.85e+02 3.00e-02 6.43e+02 0.00e+00 8.52e+02 4.90e+02 0.00e+00 0.00e+00
+ 1.00e+00]</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>[0.06 0.07 0.04 0.04]</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
         <is>
           <t>{'type': 'fisheye', 'f': 'fx_fy_cx_cy_s', 'dist': 'k1_k2_k3_k4'}</t>
         </is>
